--- a/dades/4S1.xlsx
+++ b/dades/4S1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F7827C1-42C2-4ECF-96AF-302F9D8118C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2308240-8618-4314-B1BA-CD6666C23770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="79">
   <si>
     <t>departure</t>
   </si>
@@ -610,7 +610,7 @@
   <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>0.25107638888888889</v>
+        <v>0.25200231481481483</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -671,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>0.25381944444444443</v>
+        <v>0.25483796296296296</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>7</v>
@@ -688,7 +688,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>0.25769675925925922</v>
+        <v>0.25694444444444448</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.26070601851851855</v>
+        <v>0.26003472222222224</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -723,7 +723,7 @@
       </c>
       <c r="B8" s="1">
         <f>B4+(2.5/24)</f>
-        <v>0.35524305555555558</v>
+        <v>0.35616898148148152</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -741,7 +741,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ref="B9:B31" si="0">B5+(2.5/24)</f>
-        <v>0.35798611111111112</v>
+        <v>0.35900462962962965</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -759,7 +759,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>0.36186342592592591</v>
+        <v>0.36111111111111116</v>
       </c>
       <c r="C10" t="s">
         <v>12</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>0.36487268518518523</v>
+        <v>0.36420138888888892</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -795,7 +795,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>0.45940972222222226</v>
+        <v>0.4603356481481482</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -813,7 +813,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>0.4621527777777778</v>
+        <v>0.46317129629629633</v>
       </c>
       <c r="C13" t="s">
         <v>13</v>
@@ -831,7 +831,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>0.46603009259259259</v>
+        <v>0.46527777777777785</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -849,7 +849,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>0.46903935185185192</v>
+        <v>0.46836805555555561</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -867,7 +867,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>0.56357638888888895</v>
+        <v>0.56450231481481483</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
@@ -885,7 +885,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>0.56631944444444449</v>
+        <v>0.56733796296296302</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
@@ -903,7 +903,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
-        <v>0.57019675925925928</v>
+        <v>0.56944444444444453</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -921,7 +921,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" si="0"/>
-        <v>0.5732060185185186</v>
+        <v>0.57253472222222224</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" si="0"/>
-        <v>0.66774305555555558</v>
+        <v>0.66866898148148146</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -957,7 +957,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" si="0"/>
-        <v>0.67048611111111112</v>
+        <v>0.67150462962962965</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -975,7 +975,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
-        <v>0.67436342592592591</v>
+        <v>0.67361111111111116</v>
       </c>
       <c r="C22" t="s">
         <v>18</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
-        <v>0.67737268518518523</v>
+        <v>0.67670138888888887</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
-        <v>0.77190972222222221</v>
+        <v>0.77283564814814809</v>
       </c>
       <c r="C24" t="s">
         <v>19</v>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
-        <v>0.77465277777777775</v>
+        <v>0.77567129629629628</v>
       </c>
       <c r="C25" t="s">
         <v>19</v>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
-        <v>0.77853009259259254</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" si="0"/>
-        <v>0.78153935185185186</v>
+        <v>0.7808680555555555</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" si="0"/>
-        <v>0.87607638888888884</v>
+        <v>0.87700231481481472</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
-        <v>0.87881944444444438</v>
+        <v>0.87983796296296291</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
-        <v>0.88269675925925917</v>
+        <v>0.88194444444444442</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
-        <v>0.88570601851851849</v>
+        <v>0.88503472222222213</v>
       </c>
       <c r="C31" t="s">
         <v>22</v>
@@ -1150,899 +1150,2015 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.21527777777777779</v>
+      </c>
       <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D32" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0.21836805555555558</v>
+      </c>
       <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D33" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.31450231481481478</v>
+      </c>
       <c r="C34" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0.31733796296296296</v>
+      </c>
       <c r="C35" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D35" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="1">
+        <f>B32+(2.5/24)</f>
+        <v>0.31944444444444448</v>
+      </c>
       <c r="C36" t="s">
         <v>25</v>
       </c>
       <c r="D36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" ref="B37:B60" si="1">B33+(2.5/24)</f>
+        <v>0.32253472222222224</v>
+      </c>
       <c r="C37" t="s">
         <v>25</v>
       </c>
       <c r="D37" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41866898148148146</v>
+      </c>
       <c r="C38" t="s">
         <v>26</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42150462962962965</v>
+      </c>
       <c r="C39" t="s">
         <v>26</v>
       </c>
       <c r="D39" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42361111111111116</v>
+      </c>
       <c r="C40" t="s">
         <v>27</v>
       </c>
       <c r="D40" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="1"/>
+        <v>0.42670138888888892</v>
+      </c>
       <c r="C41" t="s">
         <v>27</v>
       </c>
       <c r="D41" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52283564814814809</v>
+      </c>
       <c r="C42" t="s">
         <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52567129629629628</v>
+      </c>
       <c r="C43" t="s">
         <v>28</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="1"/>
+        <v>0.52777777777777779</v>
+      </c>
       <c r="C44" t="s">
         <v>29</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53086805555555561</v>
+      </c>
       <c r="C45" t="s">
         <v>29</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62700231481481472</v>
+      </c>
       <c r="C46" t="s">
         <v>30</v>
       </c>
       <c r="D46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="1"/>
+        <v>0.62983796296296291</v>
+      </c>
       <c r="C47" t="s">
         <v>30</v>
       </c>
       <c r="D47" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="1"/>
+        <v>0.63194444444444442</v>
+      </c>
       <c r="C48" t="s">
         <v>31</v>
       </c>
       <c r="D48" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="1"/>
+        <v>0.63503472222222224</v>
+      </c>
       <c r="C49" t="s">
         <v>31</v>
       </c>
       <c r="D49" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73116898148148135</v>
+      </c>
       <c r="C50" t="s">
         <v>32</v>
       </c>
       <c r="D50" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73400462962962953</v>
+      </c>
       <c r="C51" t="s">
         <v>32</v>
       </c>
       <c r="D51" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73611111111111105</v>
+      </c>
       <c r="C52" t="s">
         <v>33</v>
       </c>
       <c r="D52" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" s="1">
+        <f t="shared" si="1"/>
+        <v>0.73920138888888887</v>
+      </c>
       <c r="C53" t="s">
         <v>33</v>
       </c>
       <c r="D53" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83533564814814798</v>
+      </c>
       <c r="C54" t="s">
         <v>34</v>
       </c>
       <c r="D54" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83817129629629616</v>
+      </c>
       <c r="C55" t="s">
         <v>34</v>
       </c>
       <c r="D55" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="1">
+        <f t="shared" si="1"/>
+        <v>0.84027777777777768</v>
+      </c>
       <c r="C56" t="s">
         <v>35</v>
       </c>
       <c r="D56" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="57" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" s="1">
+        <f t="shared" si="1"/>
+        <v>0.8433680555555555</v>
+      </c>
       <c r="C57" t="s">
         <v>35</v>
       </c>
       <c r="D57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="58" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93950231481481461</v>
+      </c>
       <c r="C58" t="s">
         <v>36</v>
       </c>
       <c r="D58" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" s="1">
+        <f t="shared" si="1"/>
+        <v>0.94233796296296279</v>
+      </c>
       <c r="C59" t="s">
         <v>36</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" s="1">
+        <f>B4+(0.5/24)</f>
+        <v>0.27283564814814815</v>
+      </c>
       <c r="C60" t="s">
         <v>37</v>
       </c>
       <c r="D60" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="61" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1">
+        <f t="shared" ref="B61:B124" si="2">B5+(0.5/24)</f>
+        <v>0.27567129629629628</v>
+      </c>
       <c r="C61" t="s">
         <v>37</v>
       </c>
       <c r="D61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" s="1">
+        <f t="shared" si="2"/>
+        <v>0.27777777777777779</v>
+      </c>
       <c r="C62" t="s">
         <v>38</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" s="1">
+        <f t="shared" si="2"/>
+        <v>0.28086805555555555</v>
+      </c>
       <c r="C63" t="s">
         <v>38</v>
       </c>
       <c r="D63" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37700231481481483</v>
+      </c>
       <c r="C64" t="s">
         <v>39</v>
       </c>
       <c r="D64" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>6</v>
+      </c>
+      <c r="B65" s="1">
+        <f t="shared" si="2"/>
+        <v>0.37983796296296296</v>
+      </c>
       <c r="C65" t="s">
         <v>39</v>
       </c>
       <c r="D65" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+      <c r="B66" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38194444444444448</v>
+      </c>
       <c r="C66" t="s">
         <v>40</v>
       </c>
       <c r="D66" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="1">
+        <f t="shared" si="2"/>
+        <v>0.38503472222222224</v>
+      </c>
       <c r="C67" t="s">
         <v>40</v>
       </c>
       <c r="D67" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48116898148148152</v>
+      </c>
       <c r="C68" t="s">
         <v>41</v>
       </c>
       <c r="D68" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>6</v>
+      </c>
+      <c r="B69" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48400462962962965</v>
+      </c>
       <c r="C69" t="s">
         <v>41</v>
       </c>
       <c r="D69" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48611111111111116</v>
+      </c>
       <c r="C70" t="s">
         <v>42</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" s="1">
+        <f t="shared" si="2"/>
+        <v>0.48920138888888892</v>
+      </c>
       <c r="C71" t="s">
         <v>42</v>
       </c>
       <c r="D71" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5853356481481482</v>
+      </c>
       <c r="C72" t="s">
         <v>43</v>
       </c>
       <c r="D72" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>6</v>
+      </c>
+      <c r="B73" s="1">
+        <f t="shared" si="2"/>
+        <v>0.58817129629629639</v>
+      </c>
       <c r="C73" t="s">
         <v>43</v>
       </c>
       <c r="D73" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="1">
+        <f t="shared" si="2"/>
+        <v>0.5902777777777779</v>
+      </c>
       <c r="C74" t="s">
         <v>44</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" s="1">
+        <f t="shared" si="2"/>
+        <v>0.59336805555555561</v>
+      </c>
       <c r="C75" t="s">
         <v>44</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" s="1">
+        <f t="shared" si="2"/>
+        <v>0.68950231481481483</v>
+      </c>
       <c r="C76" t="s">
         <v>45</v>
       </c>
       <c r="D76" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69233796296296302</v>
+      </c>
       <c r="C77" t="s">
         <v>45</v>
       </c>
       <c r="D77" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="78" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69444444444444453</v>
+      </c>
       <c r="C78" t="s">
         <v>46</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" s="1">
+        <f t="shared" si="2"/>
+        <v>0.69753472222222224</v>
+      </c>
       <c r="C79" t="s">
         <v>46</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79366898148148146</v>
+      </c>
       <c r="C80" t="s">
         <v>47</v>
       </c>
       <c r="D80" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79650462962962965</v>
+      </c>
       <c r="C81" t="s">
         <v>47</v>
       </c>
       <c r="D81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>6</v>
+      </c>
+      <c r="B82" s="1">
+        <f t="shared" si="2"/>
+        <v>0.79861111111111116</v>
+      </c>
       <c r="C82" t="s">
         <v>48</v>
       </c>
       <c r="D82" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <f t="shared" si="2"/>
+        <v>0.80170138888888887</v>
+      </c>
       <c r="C83" t="s">
         <v>48</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <f t="shared" si="2"/>
+        <v>0.89783564814814809</v>
+      </c>
       <c r="C84" t="s">
         <v>49</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90067129629629628</v>
+      </c>
       <c r="C85" t="s">
         <v>49</v>
       </c>
       <c r="D85" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>6</v>
+      </c>
+      <c r="B86" s="1">
+        <f t="shared" si="2"/>
+        <v>0.90277777777777779</v>
+      </c>
       <c r="C86" t="s">
         <v>50</v>
       </c>
       <c r="D86" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <f t="shared" si="2"/>
+        <v>0.9058680555555555</v>
+      </c>
       <c r="C87" t="s">
         <v>50</v>
       </c>
       <c r="D87" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23611111111111113</v>
+      </c>
       <c r="C88" t="s">
         <v>51</v>
       </c>
       <c r="D88" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E88" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <f t="shared" si="2"/>
+        <v>0.23920138888888892</v>
+      </c>
       <c r="C89" t="s">
         <v>51</v>
       </c>
       <c r="D89" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33533564814814809</v>
+      </c>
       <c r="C90" t="s">
         <v>52</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>6</v>
+      </c>
+      <c r="B91" s="1">
+        <f t="shared" si="2"/>
+        <v>0.33817129629629628</v>
+      </c>
       <c r="C91" t="s">
         <v>52</v>
       </c>
       <c r="D91" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>6</v>
+      </c>
+      <c r="B92" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34027777777777779</v>
+      </c>
       <c r="C92" t="s">
         <v>53</v>
       </c>
       <c r="D92" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E92" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <f t="shared" si="2"/>
+        <v>0.34336805555555555</v>
+      </c>
       <c r="C93" t="s">
         <v>53</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <f t="shared" si="2"/>
+        <v>0.43950231481481478</v>
+      </c>
       <c r="C94" t="s">
         <v>54</v>
       </c>
       <c r="D94" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44233796296296296</v>
+      </c>
       <c r="C95" t="s">
         <v>54</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444448</v>
+      </c>
       <c r="C96" t="s">
         <v>55</v>
       </c>
       <c r="D96" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44753472222222224</v>
+      </c>
       <c r="C97" t="s">
         <v>55</v>
       </c>
       <c r="D97" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <f t="shared" si="2"/>
+        <v>0.54366898148148146</v>
+      </c>
       <c r="C98" t="s">
         <v>56</v>
       </c>
       <c r="D98" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>6</v>
+      </c>
+      <c r="B99" s="1">
+        <f t="shared" si="2"/>
+        <v>0.54650462962962965</v>
+      </c>
       <c r="C99" t="s">
         <v>56</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>6</v>
+      </c>
+      <c r="B100" s="1">
+        <f t="shared" si="2"/>
+        <v>0.54861111111111116</v>
+      </c>
       <c r="C100" t="s">
         <v>57</v>
       </c>
       <c r="D100" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <f t="shared" si="2"/>
+        <v>0.55170138888888898</v>
+      </c>
       <c r="C101" t="s">
         <v>57</v>
       </c>
       <c r="D101" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <f t="shared" si="2"/>
+        <v>0.64783564814814809</v>
+      </c>
       <c r="C102" t="s">
         <v>58</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65067129629629628</v>
+      </c>
       <c r="C103" t="s">
         <v>58</v>
       </c>
       <c r="D103" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>6</v>
+      </c>
+      <c r="B104" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65277777777777779</v>
+      </c>
       <c r="C104" t="s">
         <v>59</v>
       </c>
       <c r="D104" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <f t="shared" si="2"/>
+        <v>0.65586805555555561</v>
+      </c>
       <c r="C105" t="s">
         <v>59</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75200231481481472</v>
+      </c>
       <c r="C106" t="s">
         <v>60</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75483796296296291</v>
+      </c>
       <c r="C107" t="s">
         <v>60</v>
       </c>
       <c r="D107" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>6</v>
+      </c>
+      <c r="B108" s="1">
+        <f t="shared" si="2"/>
+        <v>0.75694444444444442</v>
+      </c>
       <c r="C108" t="s">
         <v>61</v>
       </c>
       <c r="D108" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" s="1">
+        <f t="shared" si="2"/>
+        <v>0.76003472222222224</v>
+      </c>
       <c r="C109" t="s">
         <v>61</v>
       </c>
       <c r="D109" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85616898148148135</v>
+      </c>
       <c r="C110" t="s">
         <v>62</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" s="1">
+        <f t="shared" si="2"/>
+        <v>0.85900462962962953</v>
+      </c>
       <c r="C111" t="s">
         <v>62</v>
       </c>
       <c r="D111" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>6</v>
+      </c>
+      <c r="B112" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86111111111111105</v>
+      </c>
       <c r="C112" t="s">
         <v>63</v>
       </c>
       <c r="D112" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" s="1">
+        <f t="shared" si="2"/>
+        <v>0.86420138888888887</v>
+      </c>
       <c r="C113" t="s">
         <v>63</v>
       </c>
       <c r="D113" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96033564814814798</v>
+      </c>
       <c r="C114" t="s">
         <v>64</v>
       </c>
       <c r="D114" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>6</v>
+      </c>
+      <c r="B115" s="1">
+        <f t="shared" si="2"/>
+        <v>0.96317129629629616</v>
+      </c>
       <c r="C115" t="s">
         <v>64</v>
       </c>
       <c r="D115" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29366898148148146</v>
+      </c>
       <c r="C116" t="s">
         <v>65</v>
       </c>
       <c r="D116" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" s="1">
+        <f t="shared" si="2"/>
+        <v>0.29650462962962959</v>
+      </c>
       <c r="C117" t="s">
         <v>65</v>
       </c>
       <c r="D117" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2986111111111111</v>
+      </c>
       <c r="C118" t="s">
         <v>66</v>
       </c>
       <c r="D118" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" s="1">
+        <f t="shared" si="2"/>
+        <v>0.30170138888888887</v>
+      </c>
       <c r="C119" t="s">
         <v>66</v>
       </c>
       <c r="D119" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="120" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E119" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="1">
+        <f t="shared" si="2"/>
+        <v>0.39783564814814815</v>
+      </c>
       <c r="C120" t="s">
         <v>67</v>
       </c>
       <c r="D120" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>6</v>
+      </c>
+      <c r="B121" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40067129629629628</v>
+      </c>
       <c r="C121" t="s">
         <v>67</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>6</v>
+      </c>
+      <c r="B122" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40277777777777779</v>
+      </c>
       <c r="C122" t="s">
         <v>68</v>
       </c>
       <c r="D122" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" s="1">
+        <f t="shared" si="2"/>
+        <v>0.40586805555555555</v>
+      </c>
       <c r="C123" t="s">
         <v>68</v>
       </c>
       <c r="D123" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="124" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" s="1">
+        <f t="shared" si="2"/>
+        <v>0.50200231481481483</v>
+      </c>
       <c r="C124" t="s">
         <v>69</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="1">
+        <f t="shared" ref="B125:B143" si="3">B69+(0.5/24)</f>
+        <v>0.50483796296296302</v>
+      </c>
       <c r="C125" t="s">
         <v>69</v>
       </c>
       <c r="D125" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" s="1">
+        <f t="shared" si="3"/>
+        <v>0.50694444444444453</v>
+      </c>
       <c r="C126" t="s">
         <v>70</v>
       </c>
       <c r="D126" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" s="1">
+        <f t="shared" si="3"/>
+        <v>0.51003472222222224</v>
+      </c>
       <c r="C127" t="s">
         <v>70</v>
       </c>
       <c r="D127" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="1">
+        <f t="shared" si="3"/>
+        <v>0.60616898148148157</v>
+      </c>
       <c r="C128" t="s">
         <v>71</v>
       </c>
       <c r="D128" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="1">
+        <f t="shared" si="3"/>
+        <v>0.60900462962962976</v>
+      </c>
       <c r="C129" t="s">
         <v>71</v>
       </c>
       <c r="D129" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="1">
+        <f t="shared" si="3"/>
+        <v>0.61111111111111127</v>
+      </c>
       <c r="C130" t="s">
         <v>72</v>
       </c>
       <c r="D130" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E130" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" s="1">
+        <f t="shared" si="3"/>
+        <v>0.61420138888888898</v>
+      </c>
       <c r="C131" t="s">
         <v>72</v>
       </c>
       <c r="D131" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7103356481481482</v>
+      </c>
       <c r="C132" t="s">
         <v>73</v>
       </c>
       <c r="D132" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" s="1">
+        <f t="shared" si="3"/>
+        <v>0.71317129629629639</v>
+      </c>
       <c r="C133" t="s">
         <v>73</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" s="1">
+        <f t="shared" si="3"/>
+        <v>0.7152777777777779</v>
+      </c>
       <c r="C134" t="s">
         <v>74</v>
       </c>
       <c r="D134" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E134" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" s="1">
+        <f t="shared" si="3"/>
+        <v>0.71836805555555561</v>
+      </c>
       <c r="C135" t="s">
         <v>74</v>
       </c>
       <c r="D135" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" s="1">
+        <f t="shared" si="3"/>
+        <v>0.81450231481481483</v>
+      </c>
       <c r="C136" t="s">
         <v>75</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="1">
+        <f t="shared" si="3"/>
+        <v>0.81733796296296302</v>
+      </c>
       <c r="C137" t="s">
         <v>75</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>6</v>
+      </c>
+      <c r="B138" s="1">
+        <f t="shared" si="3"/>
+        <v>0.81944444444444453</v>
+      </c>
       <c r="C138" t="s">
         <v>76</v>
       </c>
       <c r="D138" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" s="1">
+        <f t="shared" si="3"/>
+        <v>0.82253472222222224</v>
+      </c>
       <c r="C139" t="s">
         <v>76</v>
       </c>
       <c r="D139" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" s="1">
+        <f t="shared" si="3"/>
+        <v>0.91866898148148146</v>
+      </c>
       <c r="C140" t="s">
         <v>77</v>
       </c>
       <c r="D140" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92150462962962965</v>
+      </c>
       <c r="C141" t="s">
         <v>77</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92361111111111116</v>
+      </c>
       <c r="C142" t="s">
         <v>78</v>
       </c>
       <c r="D142" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" s="1">
+        <f t="shared" si="3"/>
+        <v>0.92670138888888887</v>
+      </c>
       <c r="C143" t="s">
         <v>78</v>
       </c>
       <c r="D143" t="s">
         <v>8</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
